--- a/data/dataset3_endingassessment.xlsx
+++ b/data/dataset3_endingassessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Documents/STUDYATNCSU/2022fallsemeter/ST542/Data&amp;Coding/St542Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F958A3AC-41D8-6342-8190-E8898CA62483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA76FC1-4EEB-3A42-823B-63552A3E471C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2140" windowWidth="27640" windowHeight="16940" xr2:uid="{633EC068-A49D-294C-AD80-D14AAD880ADC}"/>
+    <workbookView xWindow="5540" yWindow="5460" windowWidth="27640" windowHeight="16940" xr2:uid="{633EC068-A49D-294C-AD80-D14AAD880ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,45 +814,9 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>StudentIDnumber</t>
-  </si>
-  <si>
     <t>IntendedMajor</t>
   </si>
   <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Adultsshouldplaysinceitcanhelpfostercreativity.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.PeoplecanbecomemorecreativeovertheirlifetimesincecreativityisNOTfixedatbirth.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Creativityinvolvesassembling,developing,producingnewororiginalwork.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Researchersstudystagesofcreativityandtheprocessofcreativity.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Iconsidermyselftobecreative.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Creativethinkingcaninvolvebringingtogetherexistingideasintonewconfigurations.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Researchersstudycreativepeopleandwhatmakesthemuniquecomparedtoothers.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Creativityismostlylearnedandacquired.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Creativityisasetofbehaviors.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Beforeyoucangrowyourcreativity,youneedtohaveaknowledgefoundationontheapplicabletopic.</t>
-  </si>
-  <si>
-    <t>Forthefollowingstatements,pleaseselecthowmuchyouagreewiththemonascaleof1to5,with1beingstronglydisagreeand5beingstronglyagree.Askingquestionsisabigpartofbeingcreative.</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -1919,6 +1883,42 @@
   </si>
   <si>
     <t>Creativity activates the ability to come up with new scientific ideas. Its part of the foundation of being a scientist.</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2000,12 +2000,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2324,139 +2318,139 @@
   <dimension ref="A1:AN266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR93" sqref="AR93"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>626</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Z1" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AA1" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AD1" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AF1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AG1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AK1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AM1" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44502.635604236115</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="1">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2575,7 +2569,7 @@
       <c r="A3" s="2">
         <v>44502.636805555558</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2694,7 +2688,7 @@
       <c r="A4" s="3">
         <v>44497.417954074073</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="4">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2813,7 +2807,7 @@
       <c r="A5" s="3">
         <v>44502.412729884258</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="4">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2932,7 +2926,7 @@
       <c r="A6" s="2">
         <v>44502.633856967594</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="1">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3051,7 +3045,7 @@
       <c r="A7" s="3">
         <v>44497.417662037042</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="4">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3170,7 +3164,7 @@
       <c r="A8" s="2">
         <v>44502.636555104167</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="1">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3289,7 +3283,7 @@
       <c r="A9" s="2">
         <v>44502.636903009261</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="1">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3408,7 +3402,7 @@
       <c r="A10" s="3">
         <v>44497.419337546293</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="4">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3527,7 +3521,7 @@
       <c r="A11" s="2">
         <v>44502.634549537033</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="1">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3646,7 +3640,7 @@
       <c r="A12" s="3">
         <v>44497.414918576389</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="4">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3765,7 +3759,7 @@
       <c r="A13" s="2">
         <v>44502.633225625003</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3884,7 +3878,7 @@
       <c r="A14" s="3">
         <v>44502.410166655092</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4003,7 +3997,7 @@
       <c r="A15" s="2">
         <v>44502.634022326391</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4122,7 +4116,7 @@
       <c r="A16" s="3">
         <v>44504.492883252315</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4241,7 +4235,7 @@
       <c r="A17" s="3">
         <v>44497.418446238429</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4361,7 +4355,7 @@
       <c r="A18" s="3">
         <v>44502.409259097221</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4481,7 +4475,7 @@
       <c r="A19" s="3">
         <v>44497.419279074078</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4601,7 +4595,7 @@
       <c r="A20" s="3">
         <v>44497.415999872683</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="4">
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4721,7 +4715,7 @@
       <c r="A21" s="2">
         <v>44502.634178645836</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="1">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4841,7 +4835,7 @@
       <c r="A22" s="2">
         <v>44502.634037291667</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="1">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4961,7 +4955,7 @@
       <c r="A23" s="2">
         <v>44502.636338287033</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="1">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5081,7 +5075,7 @@
       <c r="A24" s="2">
         <v>44502.635249571758</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="1">
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5201,7 +5195,7 @@
       <c r="A25" s="3">
         <v>44497.419106898145</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="4">
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -5321,7 +5315,7 @@
       <c r="A26" s="2">
         <v>44502.638259201391</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="1">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5441,7 +5435,7 @@
       <c r="A27" s="2">
         <v>44502.639040983791</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="1">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5561,7 +5555,7 @@
       <c r="A28" s="2">
         <v>44502.636496458334</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="1">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -5681,7 +5675,7 @@
       <c r="A29" s="3">
         <v>44497.418620520832</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="4">
         <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5801,7 +5795,7 @@
       <c r="A30" s="2">
         <v>44502.635701412037</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="1">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -5921,7 +5915,7 @@
       <c r="A31" s="3">
         <v>44502.410893692126</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="4">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -6041,7 +6035,7 @@
       <c r="A32" s="2">
         <v>44502.638047442131</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="1">
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -6161,7 +6155,7 @@
       <c r="A33" s="2">
         <v>44502.633450682872</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="1">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -6281,7 +6275,7 @@
       <c r="A34" s="3">
         <v>44497.41671539352</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="4">
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -6401,7 +6395,7 @@
       <c r="A35" s="2">
         <v>44502.631981087965</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="1">
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -6521,7 +6515,7 @@
       <c r="A36" s="3">
         <v>44497.415608009258</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="4">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -6641,7 +6635,7 @@
       <c r="A37" s="3">
         <v>44497.412591041662</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="4">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -6761,7 +6755,7 @@
       <c r="A38" s="2">
         <v>44502.635284687502</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="1">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -6881,7 +6875,7 @@
       <c r="A39" s="3">
         <v>44497.418289629626</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="4">
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -7001,7 +6995,7 @@
       <c r="A40" s="3">
         <v>44502.412569201391</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="4">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -7120,7 +7114,7 @@
       <c r="A41" s="3">
         <v>44497.415847974538</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="4">
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -7239,7 +7233,7 @@
       <c r="A42" s="2">
         <v>44502.635259155097</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="1">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -7358,7 +7352,7 @@
       <c r="A43" s="2">
         <v>44502.639719421291</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="1">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -7477,7 +7471,7 @@
       <c r="A44" s="3">
         <v>44502.409517164357</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="4">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -7596,7 +7590,7 @@
       <c r="A45" s="2">
         <v>44502.633811990745</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="1">
         <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -7715,7 +7709,7 @@
       <c r="A46" s="2">
         <v>44502.633467280088</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="1">
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -7834,7 +7828,7 @@
       <c r="A47" s="3">
         <v>44497.416656817135</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="4">
         <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -7953,7 +7947,7 @@
       <c r="A48" s="2">
         <v>44502.633837164351</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="1">
         <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -8072,7 +8066,7 @@
       <c r="A49" s="7">
         <v>44502.633127071764</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="6">
         <v>10</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -8191,7 +8185,7 @@
       <c r="A50" s="7">
         <v>44502.633296273147</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="6">
         <v>9</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -8310,7 +8304,7 @@
       <c r="A51" s="3">
         <v>44530.919179351855</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="4">
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -8429,7 +8423,7 @@
       <c r="A52" s="3">
         <v>44497.416909594904</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="4">
         <v>13</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -8548,7 +8542,7 @@
       <c r="A53" s="2">
         <v>44502.637763078703</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="1">
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -8667,7 +8661,7 @@
       <c r="A54" s="3">
         <v>44502.412062789357</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="4">
         <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -8786,7 +8780,7 @@
       <c r="A55" s="2">
         <v>44502.633487511572</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="1">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -8905,7 +8899,7 @@
       <c r="A56" s="2">
         <v>44502.637513240741</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="1">
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -9024,7 +9018,7 @@
       <c r="A57" s="2">
         <v>44502.63387341435</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="1">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -9143,7 +9137,7 @@
       <c r="A58" s="3">
         <v>44497.41864418982</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="4">
         <v>14</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -9262,7 +9256,7 @@
       <c r="A59" s="2">
         <v>44502.634071296299</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="1">
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -9381,7 +9375,7 @@
       <c r="A60" s="3">
         <v>44497.417646469912</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="4">
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -9500,7 +9494,7 @@
       <c r="A61" s="3">
         <v>44502.413076597222</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="4">
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -9619,7 +9613,7 @@
       <c r="A62" s="3">
         <v>44502.410188946757</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="4">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -9738,7 +9732,7 @@
       <c r="A63" s="3">
         <v>44502.407772523147</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="4">
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -9857,7 +9851,7 @@
       <c r="A64" s="2">
         <v>44502.636836562495</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="1">
         <v>13</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -9976,7 +9970,7 @@
       <c r="A65" s="3">
         <v>44497.416250347218</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="4">
         <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -10095,7 +10089,7 @@
       <c r="A66" s="3">
         <v>44502.413849178236</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="4">
         <v>13</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -10214,7 +10208,7 @@
       <c r="A67" s="3">
         <v>44502.41184158565</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="4">
         <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -10333,7 +10327,7 @@
       <c r="A68" s="2">
         <v>44502.640084317129</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="1">
         <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -10452,7 +10446,7 @@
       <c r="A69" s="3">
         <v>44502.410545624996</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="4">
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -10571,7 +10565,7 @@
       <c r="A70" s="7">
         <v>44502.63249989583</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="6">
         <v>12</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -10690,7 +10684,7 @@
       <c r="A71" s="3">
         <v>44497.414170023148</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="4">
         <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -10809,7 +10803,7 @@
       <c r="A72" s="2">
         <v>44502.636205000003</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="1">
         <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -10928,7 +10922,7 @@
       <c r="A73" s="2">
         <v>44502.638010949071</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="1">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -11047,7 +11041,7 @@
       <c r="A74" s="3">
         <v>44497.417305729163</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="4">
         <v>13</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -11166,7 +11160,7 @@
       <c r="A75" s="2">
         <v>44502.637048645833</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="1">
         <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -11285,7 +11279,7 @@
       <c r="A76" s="2">
         <v>44502.637765381944</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="1">
         <v>11</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -11404,7 +11398,7 @@
       <c r="A77" s="2">
         <v>44502.637037731482</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="1">
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -11523,7 +11517,7 @@
       <c r="A78" s="3">
         <v>44502.41071413194</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="4">
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -11642,7 +11636,7 @@
       <c r="A79" s="3">
         <v>44497.420011851849</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="4">
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -11761,7 +11755,7 @@
       <c r="A80" s="3">
         <v>44502.411875520833</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="4">
         <v>12</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -11880,7 +11874,7 @@
       <c r="A81" s="3">
         <v>44497.416249942129</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="4">
         <v>13</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -11999,7 +11993,7 @@
       <c r="A82" s="2">
         <v>44502.637910682868</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="1">
         <v>14</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -12118,7 +12112,7 @@
       <c r="A83" s="3">
         <v>44497.418748784723</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="4">
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -12237,7 +12231,7 @@
       <c r="A84" s="2">
         <v>44502.637195393516</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="1">
         <v>11</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -12356,7 +12350,7 @@
       <c r="A85" s="7">
         <v>44502.630923645833</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="6">
         <v>12</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -12475,7 +12469,7 @@
       <c r="A86" s="3">
         <v>44497.417686238427</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="4">
         <v>11</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -12594,7 +12588,7 @@
       <c r="A87" s="3">
         <v>44497.415589293982</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="4">
         <v>13</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -12713,7 +12707,7 @@
       <c r="A88" s="3">
         <v>44497.415357025464</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="4">
         <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -12832,7 +12826,7 @@
       <c r="A89" s="3">
         <v>44502.415220486109</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="4">
         <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -12951,7 +12945,7 @@
       <c r="A90" s="3">
         <v>44502.409477743058</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="4">
         <v>11</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -13070,7 +13064,7 @@
       <c r="A91" s="2">
         <v>44502.638087106483</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="1">
         <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -13189,7 +13183,7 @@
       <c r="A92" s="2">
         <v>44502.635447048611</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="1">
         <v>14</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -13308,7 +13302,7 @@
       <c r="A93" s="2">
         <v>44502.646684907406</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="1">
         <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -13427,7 +13421,7 @@
       <c r="A94" s="3">
         <v>44502.415365659719</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="4">
         <v>13</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -13546,7 +13540,7 @@
       <c r="A95" s="2">
         <v>44502.634969756946</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="1">
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -13665,7 +13659,7 @@
       <c r="A96" s="2">
         <v>44502.635018078705</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="1">
         <v>13</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -13784,7 +13778,7 @@
       <c r="A97" s="7">
         <v>44502.633378923609</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="6">
         <v>12</v>
       </c>
       <c r="C97" s="6" t="s">
@@ -13903,7 +13897,7 @@
       <c r="A98" s="3">
         <v>44502.422524363428</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="4">
         <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -14022,7 +14016,7 @@
       <c r="A99" s="2">
         <v>44502.637072118057</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="1">
         <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -14141,7 +14135,7 @@
       <c r="A100" s="3">
         <v>44497.419317129628</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="4">
         <v>13</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -14264,13 +14258,13 @@
         <v>13</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D101" s="1">
         <v>200391289</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>21</v>
@@ -14327,7 +14321,7 @@
         <v>5</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="Y101" s="1" t="s">
         <v>8</v>
@@ -14383,13 +14377,13 @@
         <v>14</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D102" s="1">
         <v>200396266</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>80</v>
@@ -14446,7 +14440,7 @@
         <v>5</v>
       </c>
       <c r="X102" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="Y102" s="1" t="s">
         <v>8</v>
@@ -14502,13 +14496,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D103" s="1">
         <v>200392990</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>21</v>
@@ -14565,7 +14559,7 @@
         <v>5</v>
       </c>
       <c r="X103" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="Y103" s="1" t="s">
         <v>37</v>
@@ -14621,13 +14615,13 @@
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D104" s="1">
         <v>200350268</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>21</v>
@@ -14684,7 +14678,7 @@
         <v>5</v>
       </c>
       <c r="X104" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Y104" s="1" t="s">
         <v>37</v>
@@ -14740,13 +14734,13 @@
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D105" s="1">
         <v>200390300</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>21</v>
@@ -14803,7 +14797,7 @@
         <v>5</v>
       </c>
       <c r="X105" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Y105" s="1" t="s">
         <v>8</v>
@@ -14842,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL105" s="1" t="s">
         <v>18</v>
@@ -14859,13 +14853,13 @@
         <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D106" s="1">
         <v>200396907</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>89</v>
@@ -14922,7 +14916,7 @@
         <v>5</v>
       </c>
       <c r="X106" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Y106" s="1" t="s">
         <v>8</v>
@@ -14978,13 +14972,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D107" s="1">
         <v>200406476</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>21</v>
@@ -15041,10 +15035,10 @@
         <v>5</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z107" s="1" t="s">
         <v>91</v>
@@ -15053,7 +15047,7 @@
         <v>38</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AC107" s="1" t="s">
         <v>12</v>
@@ -15097,19 +15091,19 @@
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D108" s="1">
         <v>200395215</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G108" s="14" t="s">
-        <v>311</v>
+      <c r="G108" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>22</v>
@@ -15160,7 +15154,7 @@
         <v>4</v>
       </c>
       <c r="X108" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Y108" s="1" t="s">
         <v>134</v>
@@ -15216,13 +15210,13 @@
         <v>9</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D109" s="1">
         <v>200401038</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>80</v>
@@ -15279,7 +15273,7 @@
         <v>5</v>
       </c>
       <c r="X109" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="Y109" s="1" t="s">
         <v>8</v>
@@ -15335,13 +15329,13 @@
         <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D110" s="1">
         <v>200413039</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>60</v>
@@ -15398,10 +15392,10 @@
         <v>4</v>
       </c>
       <c r="X110" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z110" s="1" t="s">
         <v>67</v>
@@ -15454,13 +15448,13 @@
         <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D111" s="1">
         <v>200395158</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>60</v>
@@ -15517,10 +15511,10 @@
         <v>5</v>
       </c>
       <c r="X111" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Y111" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z111" s="1" t="s">
         <v>91</v>
@@ -15529,7 +15523,7 @@
         <v>38</v>
       </c>
       <c r="AB111" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AC111" s="1" t="s">
         <v>12</v>
@@ -15556,10 +15550,10 @@
         <v>1</v>
       </c>
       <c r="AK111" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AM111" s="1" t="s">
         <v>19</v>
@@ -15573,13 +15567,13 @@
         <v>13</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D112" s="1">
         <v>200390646</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>21</v>
@@ -15636,7 +15630,7 @@
         <v>5</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Y112" s="1" t="s">
         <v>8</v>
@@ -15692,13 +15686,13 @@
         <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D113" s="1">
         <v>200403433</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>54</v>
@@ -15755,7 +15749,7 @@
         <v>5</v>
       </c>
       <c r="X113" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="Y113" s="1" t="s">
         <v>8</v>
@@ -15811,13 +15805,13 @@
         <v>11</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D114" s="1">
         <v>200412958</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>54</v>
@@ -15874,7 +15868,7 @@
         <v>5</v>
       </c>
       <c r="X114" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Y114" s="1" t="s">
         <v>8</v>
@@ -15930,13 +15924,13 @@
         <v>11</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D115" s="1">
         <v>200405503</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>21</v>
@@ -15993,7 +15987,7 @@
         <v>5</v>
       </c>
       <c r="X115" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="Y115" s="1" t="s">
         <v>8</v>
@@ -16049,13 +16043,13 @@
         <v>13</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D116" s="1">
         <v>200399683</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>21</v>
@@ -16112,7 +16106,7 @@
         <v>5</v>
       </c>
       <c r="X116" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="Y116" s="1" t="s">
         <v>8</v>
@@ -16168,13 +16162,13 @@
         <v>11</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D117" s="1">
         <v>200412917</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>60</v>
@@ -16231,10 +16225,10 @@
         <v>4</v>
       </c>
       <c r="X117" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="Y117" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z117" s="1" t="s">
         <v>91</v>
@@ -16287,13 +16281,13 @@
         <v>14</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D118" s="1">
         <v>200401181</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>80</v>
@@ -16350,7 +16344,7 @@
         <v>4</v>
       </c>
       <c r="X118" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Y118" s="1" t="s">
         <v>8</v>
@@ -16406,13 +16400,13 @@
         <v>14</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D119" s="1">
         <v>200420917</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>33</v>
@@ -16469,7 +16463,7 @@
         <v>4</v>
       </c>
       <c r="X119" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="Y119" s="1" t="s">
         <v>8</v>
@@ -16531,7 +16525,7 @@
         <v>200395012</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>54</v>
@@ -16588,7 +16582,7 @@
         <v>5</v>
       </c>
       <c r="X120" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="Y120" s="1" t="s">
         <v>8</v>
@@ -16644,13 +16638,13 @@
         <v>13</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D121" s="1">
         <v>200411322</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>3</v>
@@ -16707,7 +16701,7 @@
         <v>5</v>
       </c>
       <c r="X121" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Y121" s="1" t="s">
         <v>8</v>
@@ -16763,13 +16757,13 @@
         <v>13</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D122" s="1">
         <v>200347101</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>33</v>
@@ -16826,7 +16820,7 @@
         <v>5</v>
       </c>
       <c r="X122" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Y122" s="1" t="s">
         <v>8</v>
@@ -16882,13 +16876,13 @@
         <v>11</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D123" s="1">
         <v>200397695</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>199</v>
@@ -16945,7 +16939,7 @@
         <v>5</v>
       </c>
       <c r="X123" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="Y123" s="1" t="s">
         <v>8</v>
@@ -17001,19 +16995,19 @@
         <v>13</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D124" s="1">
         <v>200390332</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G124" s="14" t="s">
-        <v>345</v>
+      <c r="G124" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>34</v>
@@ -17064,7 +17058,7 @@
         <v>5</v>
       </c>
       <c r="X124" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="Y124" s="1" t="s">
         <v>8</v>
@@ -17120,13 +17114,13 @@
         <v>10</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D125" s="1">
         <v>200413101</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>21</v>
@@ -17183,7 +17177,7 @@
         <v>4</v>
       </c>
       <c r="X125" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="Y125" s="1" t="s">
         <v>8</v>
@@ -17239,13 +17233,13 @@
         <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D126" s="1">
         <v>200399734</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>21</v>
@@ -17302,7 +17296,7 @@
         <v>5</v>
       </c>
       <c r="X126" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Y126" s="1" t="s">
         <v>8</v>
@@ -17358,13 +17352,13 @@
         <v>12</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D127" s="1">
         <v>200414837</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>21</v>
@@ -17421,7 +17415,7 @@
         <v>5</v>
       </c>
       <c r="X127" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Y127" s="1" t="s">
         <v>8</v>
@@ -17433,7 +17427,7 @@
         <v>38</v>
       </c>
       <c r="AB127" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC127" s="1" t="s">
         <v>12</v>
@@ -17477,13 +17471,13 @@
         <v>12</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D128" s="1">
         <v>200430475</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>80</v>
@@ -17540,7 +17534,7 @@
         <v>5</v>
       </c>
       <c r="X128" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="Y128" s="1" t="s">
         <v>8</v>
@@ -17596,19 +17590,19 @@
         <v>13</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D129" s="1">
         <v>200409214</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G129" s="14" t="s">
-        <v>357</v>
+      <c r="G129" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>22</v>
@@ -17659,7 +17653,7 @@
         <v>5</v>
       </c>
       <c r="X129" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="Y129" s="1" t="s">
         <v>8</v>
@@ -17671,7 +17665,7 @@
         <v>38</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC129" s="1" t="s">
         <v>12</v>
@@ -17715,13 +17709,13 @@
         <v>12</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D130" s="1">
         <v>200411439</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>33</v>
@@ -17778,7 +17772,7 @@
         <v>5</v>
       </c>
       <c r="X130" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Y130" s="1" t="s">
         <v>8</v>
@@ -17834,13 +17828,13 @@
         <v>12</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D131" s="1">
         <v>200407015</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>60</v>
@@ -17897,7 +17891,7 @@
         <v>5</v>
       </c>
       <c r="X131" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Y131" s="1" t="s">
         <v>8</v>
@@ -17953,13 +17947,13 @@
         <v>13</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D132" s="1">
         <v>200408909</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>21</v>
@@ -18016,7 +18010,7 @@
         <v>3</v>
       </c>
       <c r="X132" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="Y132" s="1" t="s">
         <v>134</v>
@@ -18072,13 +18066,13 @@
         <v>12</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D133" s="1">
         <v>200402287</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>21</v>
@@ -18135,7 +18129,7 @@
         <v>5</v>
       </c>
       <c r="X133" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="Y133" s="1" t="s">
         <v>8</v>
@@ -18191,13 +18185,13 @@
         <v>14</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D134" s="1">
         <v>200408336</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>21</v>
@@ -18254,7 +18248,7 @@
         <v>5</v>
       </c>
       <c r="X134" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Y134" s="1" t="s">
         <v>8</v>
@@ -18310,13 +18304,13 @@
         <v>9</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D135" s="1">
         <v>200391986</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>21</v>
@@ -18373,7 +18367,7 @@
         <v>5</v>
       </c>
       <c r="X135" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Y135" s="1" t="s">
         <v>8</v>
@@ -18412,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="AK135" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL135" s="1" t="s">
         <v>41</v>
@@ -18429,13 +18423,13 @@
         <v>11</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D136" s="1">
         <v>200390794</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>89</v>
@@ -18492,7 +18486,7 @@
         <v>5</v>
       </c>
       <c r="X136" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="Y136" s="1" t="s">
         <v>8</v>
@@ -18548,19 +18542,19 @@
         <v>12</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D137" s="1">
         <v>200409529</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G137" s="14" t="s">
-        <v>375</v>
+      <c r="G137" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>48</v>
@@ -18611,7 +18605,7 @@
         <v>5</v>
       </c>
       <c r="X137" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Y137" s="1" t="s">
         <v>8</v>
@@ -18667,13 +18661,13 @@
         <v>12</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D138" s="1">
         <v>200387209</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>21</v>
@@ -18685,7 +18679,7 @@
         <v>43</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>35</v>
@@ -18730,7 +18724,7 @@
         <v>5</v>
       </c>
       <c r="X138" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Y138" s="1" t="s">
         <v>8</v>
@@ -18786,13 +18780,13 @@
         <v>11</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D139" s="1">
         <v>200394994</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>21</v>
@@ -18849,7 +18843,7 @@
         <v>5</v>
       </c>
       <c r="X139" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="Y139" s="1" t="s">
         <v>8</v>
@@ -18905,13 +18899,13 @@
         <v>14</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D140" s="1">
         <v>200393567</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>80</v>
@@ -18968,7 +18962,7 @@
         <v>5</v>
       </c>
       <c r="X140" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="Y140" s="1" t="s">
         <v>8</v>
@@ -19024,13 +19018,13 @@
         <v>12</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D141" s="1">
         <v>200425237</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>199</v>
@@ -19087,7 +19081,7 @@
         <v>5</v>
       </c>
       <c r="X141" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Y141" s="1" t="s">
         <v>8</v>
@@ -19143,13 +19137,13 @@
         <v>10</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D142" s="1">
         <v>200398313</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>21</v>
@@ -19206,7 +19200,7 @@
         <v>5</v>
       </c>
       <c r="X142" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="Y142" s="1" t="s">
         <v>8</v>
@@ -19262,13 +19256,13 @@
         <v>13</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D143" s="1">
         <v>200431194</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>21</v>
@@ -19325,7 +19319,7 @@
         <v>5</v>
       </c>
       <c r="X143" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="Y143" s="1" t="s">
         <v>8</v>
@@ -19381,13 +19375,13 @@
         <v>10</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D144" s="1">
         <v>200404999</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>80</v>
@@ -19444,7 +19438,7 @@
         <v>5</v>
       </c>
       <c r="X144" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="Y144" s="1" t="s">
         <v>8</v>
@@ -19483,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="AK144" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL144" s="1" t="s">
         <v>18</v>
@@ -19500,13 +19494,13 @@
         <v>12</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D145" s="1">
         <v>200413878</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>21</v>
@@ -19563,7 +19557,7 @@
         <v>5</v>
       </c>
       <c r="X145" s="1" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="Y145" s="1" t="s">
         <v>37</v>
@@ -19619,13 +19613,13 @@
         <v>9</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D146" s="1">
         <v>200401895</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>89</v>
@@ -19682,7 +19676,7 @@
         <v>5</v>
       </c>
       <c r="X146" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="Y146" s="1" t="s">
         <v>134</v>
@@ -19738,13 +19732,13 @@
         <v>12</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D147" s="1">
         <v>200406506</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>80</v>
@@ -19801,7 +19795,7 @@
         <v>5</v>
       </c>
       <c r="X147" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Y147" s="1" t="s">
         <v>8</v>
@@ -19857,13 +19851,13 @@
         <v>11</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D148" s="1">
         <v>200407005</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>21</v>
@@ -19920,7 +19914,7 @@
         <v>5</v>
       </c>
       <c r="X148" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="Y148" s="1" t="s">
         <v>8</v>
@@ -19976,13 +19970,13 @@
         <v>9</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D149" s="1">
         <v>200407715</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>21</v>
@@ -20039,7 +20033,7 @@
         <v>5</v>
       </c>
       <c r="X149" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="Y149" s="1" t="s">
         <v>8</v>
@@ -20051,7 +20045,7 @@
         <v>38</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC149" s="1" t="s">
         <v>12</v>
@@ -20095,13 +20089,13 @@
         <v>14</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D150" s="1">
         <v>200411447</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>21</v>
@@ -20158,7 +20152,7 @@
         <v>5</v>
       </c>
       <c r="X150" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="Y150" s="1" t="s">
         <v>8</v>
@@ -20214,13 +20208,13 @@
         <v>9</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D151" s="1">
         <v>200388280</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>60</v>
@@ -20277,7 +20271,7 @@
         <v>5</v>
       </c>
       <c r="X151" s="1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="Y151" s="1" t="s">
         <v>8</v>
@@ -20316,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="AK151" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AL151" s="1" t="s">
         <v>18</v>
@@ -20333,13 +20327,13 @@
         <v>10</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D152" s="1">
         <v>200431412</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>33</v>
@@ -20396,7 +20390,7 @@
         <v>5</v>
       </c>
       <c r="X152" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="Y152" s="1" t="s">
         <v>8</v>
@@ -20435,7 +20429,7 @@
         <v>0</v>
       </c>
       <c r="AK152" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL152" s="1" t="s">
         <v>18</v>
@@ -20452,13 +20446,13 @@
         <v>12</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D153" s="1">
         <v>200397180</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>33</v>
@@ -20515,7 +20509,7 @@
         <v>5</v>
       </c>
       <c r="X153" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="Y153" s="1" t="s">
         <v>8</v>
@@ -20571,13 +20565,13 @@
         <v>10</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D154" s="1">
         <v>200425057</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>21</v>
@@ -20634,7 +20628,7 @@
         <v>5</v>
       </c>
       <c r="X154" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="Y154" s="1" t="s">
         <v>8</v>
@@ -20690,13 +20684,13 @@
         <v>11</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D155" s="1">
         <v>200178656</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>80</v>
@@ -20753,7 +20747,7 @@
         <v>5</v>
       </c>
       <c r="X155" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="Y155" s="1" t="s">
         <v>8</v>
@@ -20809,13 +20803,13 @@
         <v>10</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D156" s="1">
         <v>200410891</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>3</v>
@@ -20872,7 +20866,7 @@
         <v>5</v>
       </c>
       <c r="X156" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="Y156" s="1" t="s">
         <v>8</v>
@@ -20928,13 +20922,13 @@
         <v>11</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D157" s="1">
         <v>200402705</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>33</v>
@@ -20991,7 +20985,7 @@
         <v>5</v>
       </c>
       <c r="X157" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="Y157" s="1" t="s">
         <v>134</v>
@@ -21047,13 +21041,13 @@
         <v>10</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D158" s="1">
         <v>200412142</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>21</v>
@@ -21110,7 +21104,7 @@
         <v>5</v>
       </c>
       <c r="X158" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="Y158" s="1" t="s">
         <v>8</v>
@@ -21166,13 +21160,13 @@
         <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D159" s="1">
         <v>200390361</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>21</v>
@@ -21229,7 +21223,7 @@
         <v>5</v>
       </c>
       <c r="X159" s="1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="Y159" s="1" t="s">
         <v>8</v>
@@ -21285,13 +21279,13 @@
         <v>10</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D160" s="1">
         <v>200394632</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>21</v>
@@ -21348,7 +21342,7 @@
         <v>5</v>
       </c>
       <c r="X160" s="1" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="Y160" s="1" t="s">
         <v>8</v>
@@ -21404,13 +21398,13 @@
         <v>13</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D161" s="1">
         <v>200414425</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>54</v>
@@ -21467,7 +21461,7 @@
         <v>5</v>
       </c>
       <c r="X161" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="Y161" s="1" t="s">
         <v>8</v>
@@ -21523,13 +21517,13 @@
         <v>12</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D162" s="1">
         <v>200355513</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>33</v>
@@ -21586,7 +21580,7 @@
         <v>4</v>
       </c>
       <c r="X162" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="Y162" s="1" t="s">
         <v>8</v>
@@ -21642,13 +21636,13 @@
         <v>11</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D163" s="1">
         <v>200406280</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>54</v>
@@ -21705,7 +21699,7 @@
         <v>5</v>
       </c>
       <c r="X163" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="Y163" s="1" t="s">
         <v>8</v>
@@ -21761,13 +21755,13 @@
         <v>10</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D164" s="1">
         <v>200399908</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>21</v>
@@ -21824,7 +21818,7 @@
         <v>5</v>
       </c>
       <c r="X164" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Y164" s="1" t="s">
         <v>8</v>
@@ -21880,13 +21874,13 @@
         <v>7</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D165" s="1">
         <v>200402607</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>21</v>
@@ -21943,10 +21937,10 @@
         <v>5</v>
       </c>
       <c r="X165" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="Y165" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z165" s="1" t="s">
         <v>91</v>
@@ -21955,7 +21949,7 @@
         <v>38</v>
       </c>
       <c r="AB165" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC165" s="1" t="s">
         <v>12</v>
@@ -21999,13 +21993,13 @@
         <v>11</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D166" s="1">
         <v>200413256</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>21</v>
@@ -22062,7 +22056,7 @@
         <v>5</v>
       </c>
       <c r="X166" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="Y166" s="1" t="s">
         <v>8</v>
@@ -22118,13 +22112,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D167" s="1">
         <v>200408076</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>60</v>
@@ -22181,7 +22175,7 @@
         <v>5</v>
       </c>
       <c r="X167" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="Y167" s="1" t="s">
         <v>8</v>
@@ -22237,13 +22231,13 @@
         <v>7</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="D168" s="1">
         <v>200402418</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>21</v>
@@ -22300,7 +22294,7 @@
         <v>5</v>
       </c>
       <c r="X168" s="1" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="Y168" s="1" t="s">
         <v>8</v>
@@ -22339,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="AK168" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL168" s="1" t="s">
         <v>18</v>
@@ -22356,13 +22350,13 @@
         <v>11</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="D169" s="1">
         <v>200411161</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>60</v>
@@ -22419,7 +22413,7 @@
         <v>5</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="Y169" s="1" t="s">
         <v>8</v>
@@ -22475,13 +22469,13 @@
         <v>9</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D170" s="1">
         <v>200425195</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>80</v>
@@ -22538,7 +22532,7 @@
         <v>5</v>
       </c>
       <c r="X170" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="Y170" s="1" t="s">
         <v>8</v>
@@ -22594,13 +22588,13 @@
         <v>15</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D171" s="1">
         <v>200404888</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>21</v>
@@ -22657,7 +22651,7 @@
         <v>5</v>
       </c>
       <c r="X171" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="Y171" s="1" t="s">
         <v>8</v>
@@ -22713,13 +22707,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D172" s="1">
         <v>200409339</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>60</v>
@@ -22776,7 +22770,7 @@
         <v>5</v>
       </c>
       <c r="X172" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="Y172" s="1" t="s">
         <v>134</v>
@@ -22788,7 +22782,7 @@
         <v>38</v>
       </c>
       <c r="AB172" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC172" s="1" t="s">
         <v>73</v>
@@ -22838,7 +22832,7 @@
         <v>200433006</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>21</v>
@@ -22895,7 +22889,7 @@
         <v>4</v>
       </c>
       <c r="X173" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Y173" s="1" t="s">
         <v>8</v>
@@ -22951,13 +22945,13 @@
         <v>10</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D174" s="1">
         <v>200432097</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>80</v>
@@ -23014,7 +23008,7 @@
         <v>5</v>
       </c>
       <c r="X174" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="Y174" s="1" t="s">
         <v>8</v>
@@ -23076,7 +23070,7 @@
         <v>200409392</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>80</v>
@@ -23133,7 +23127,7 @@
         <v>5</v>
       </c>
       <c r="X175" s="1" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="Y175" s="1" t="s">
         <v>8</v>
@@ -23189,13 +23183,13 @@
         <v>13</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D176" s="1">
         <v>200432878</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>21</v>
@@ -23252,7 +23246,7 @@
         <v>5</v>
       </c>
       <c r="X176" s="1" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="Y176" s="1" t="s">
         <v>8</v>
@@ -23264,7 +23258,7 @@
         <v>38</v>
       </c>
       <c r="AB176" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC176" s="1" t="s">
         <v>12</v>
@@ -23308,13 +23302,13 @@
         <v>12</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D177" s="1">
         <v>200403753</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>21</v>
@@ -23371,7 +23365,7 @@
         <v>5</v>
       </c>
       <c r="X177" s="1" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="Y177" s="1" t="s">
         <v>8</v>
@@ -23383,7 +23377,7 @@
         <v>38</v>
       </c>
       <c r="AB177" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC177" s="1" t="s">
         <v>12</v>
@@ -23427,13 +23421,13 @@
         <v>9</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D178" s="1">
         <v>200407876</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>3</v>
@@ -23490,7 +23484,7 @@
         <v>5</v>
       </c>
       <c r="X178" s="1" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="Y178" s="1" t="s">
         <v>134</v>
@@ -23552,7 +23546,7 @@
         <v>200413370</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>54</v>
@@ -23609,7 +23603,7 @@
         <v>5</v>
       </c>
       <c r="X179" s="1" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="Y179" s="1" t="s">
         <v>8</v>
@@ -23648,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="AK179" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="AL179" s="1" t="s">
         <v>18</v>
@@ -23665,13 +23659,13 @@
         <v>12</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D180" s="1">
         <v>200397506</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>21</v>
@@ -23728,7 +23722,7 @@
         <v>5</v>
       </c>
       <c r="X180" s="1" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="Y180" s="1" t="s">
         <v>8</v>
@@ -23784,13 +23778,13 @@
         <v>12</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D181" s="1">
         <v>200400056</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>21</v>
@@ -23847,7 +23841,7 @@
         <v>5</v>
       </c>
       <c r="X181" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="Y181" s="1" t="s">
         <v>8</v>
@@ -23903,13 +23897,13 @@
         <v>6</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D182" s="1">
         <v>200394493</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>21</v>
@@ -23966,7 +23960,7 @@
         <v>5</v>
       </c>
       <c r="X182" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="Y182" s="1" t="s">
         <v>8</v>
@@ -24005,7 +23999,7 @@
         <v>1</v>
       </c>
       <c r="AK182" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AL182" s="1" t="s">
         <v>18</v>
@@ -24022,13 +24016,13 @@
         <v>11</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D183" s="1">
         <v>200428140</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>3</v>
@@ -24085,7 +24079,7 @@
         <v>5</v>
       </c>
       <c r="X183" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="Y183" s="1" t="s">
         <v>8</v>
@@ -24141,13 +24135,13 @@
         <v>13</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D184" s="1">
         <v>200399776</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>60</v>
@@ -24204,7 +24198,7 @@
         <v>5</v>
       </c>
       <c r="X184" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="Y184" s="1" t="s">
         <v>8</v>
@@ -24260,13 +24254,13 @@
         <v>15</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D185" s="1">
         <v>200396432</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>54</v>
@@ -24278,7 +24272,7 @@
         <v>48</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>35</v>
@@ -24323,7 +24317,7 @@
         <v>3</v>
       </c>
       <c r="X185" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="Y185" s="1" t="s">
         <v>8</v>
@@ -24379,13 +24373,13 @@
         <v>11</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D186" s="1">
         <v>200430536</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>21</v>
@@ -24442,7 +24436,7 @@
         <v>4</v>
       </c>
       <c r="X186" s="1" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="Y186" s="1" t="s">
         <v>8</v>
@@ -24498,13 +24492,13 @@
         <v>11</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D187" s="1">
         <v>200431711</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>54</v>
@@ -24561,7 +24555,7 @@
         <v>4</v>
       </c>
       <c r="X187" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Y187" s="1" t="s">
         <v>8</v>
@@ -24617,13 +24611,13 @@
         <v>12</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D188" s="1">
         <v>200431791</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>21</v>
@@ -24680,7 +24674,7 @@
         <v>5</v>
       </c>
       <c r="X188" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="Y188" s="1" t="s">
         <v>8</v>
@@ -24736,13 +24730,13 @@
         <v>12</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D189" s="1">
         <v>200406529</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>3</v>
@@ -24799,7 +24793,7 @@
         <v>4</v>
       </c>
       <c r="X189" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="Y189" s="1" t="s">
         <v>8</v>
@@ -24855,13 +24849,13 @@
         <v>10</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D190" s="1">
         <v>200395164</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>60</v>
@@ -24918,7 +24912,7 @@
         <v>4</v>
       </c>
       <c r="X190" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Y190" s="1" t="s">
         <v>8</v>
@@ -24974,13 +24968,13 @@
         <v>11</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D191" s="1">
         <v>200412757</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>60</v>
@@ -25037,7 +25031,7 @@
         <v>5</v>
       </c>
       <c r="X191" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="Y191" s="1" t="s">
         <v>8</v>
@@ -25093,13 +25087,13 @@
         <v>7</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D192" s="1">
         <v>200415199</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>89</v>
@@ -25156,10 +25150,10 @@
         <v>5</v>
       </c>
       <c r="X192" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="Y192" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z192" s="1" t="s">
         <v>67</v>
@@ -25195,7 +25189,7 @@
         <v>1</v>
       </c>
       <c r="AK192" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="AL192" s="1" t="s">
         <v>18</v>
@@ -25212,13 +25206,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D193" s="1">
         <v>200399122</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>60</v>
@@ -25275,7 +25269,7 @@
         <v>5</v>
       </c>
       <c r="X193" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="Y193" s="1" t="s">
         <v>37</v>
@@ -25331,13 +25325,13 @@
         <v>15</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D194" s="1">
         <v>200410366</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>21</v>
@@ -25394,7 +25388,7 @@
         <v>5</v>
       </c>
       <c r="X194" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="Y194" s="1" t="s">
         <v>8</v>
@@ -25450,13 +25444,13 @@
         <v>11</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D195" s="1">
         <v>200407893</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>21</v>
@@ -25513,7 +25507,7 @@
         <v>5</v>
       </c>
       <c r="X195" s="1" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="Y195" s="1" t="s">
         <v>8</v>
@@ -25569,13 +25563,13 @@
         <v>12</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D196" s="1">
         <v>200409920</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>21</v>
@@ -25632,7 +25626,7 @@
         <v>5</v>
       </c>
       <c r="X196" s="1" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="Y196" s="1" t="s">
         <v>8</v>
@@ -25688,13 +25682,13 @@
         <v>12</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D197" s="1">
         <v>200431361</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>89</v>
@@ -25751,7 +25745,7 @@
         <v>4</v>
       </c>
       <c r="X197" s="1" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="Y197" s="1" t="s">
         <v>8</v>
@@ -25807,13 +25801,13 @@
         <v>12</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D198" s="1">
         <v>200410657</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>21</v>
@@ -25870,7 +25864,7 @@
         <v>2</v>
       </c>
       <c r="X198" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="Y198" s="1" t="s">
         <v>8</v>
@@ -25926,13 +25920,13 @@
         <v>12</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D199" s="1">
         <v>200404038</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>21</v>
@@ -25989,7 +25983,7 @@
         <v>5</v>
       </c>
       <c r="X199" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="Y199" s="1" t="s">
         <v>8</v>
@@ -26045,13 +26039,13 @@
         <v>11</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D200" s="1">
         <v>200407933</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>60</v>
@@ -26108,7 +26102,7 @@
         <v>5</v>
       </c>
       <c r="X200" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="Y200" s="1" t="s">
         <v>8</v>
@@ -26164,13 +26158,13 @@
         <v>9</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D201" s="1">
         <v>200403070</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>89</v>
@@ -26227,7 +26221,7 @@
         <v>5</v>
       </c>
       <c r="X201" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="Y201" s="1" t="s">
         <v>8</v>
@@ -26283,13 +26277,13 @@
         <v>10</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D202" s="1">
         <v>200412436</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>21</v>
@@ -26346,7 +26340,7 @@
         <v>3</v>
       </c>
       <c r="X202" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="Y202" s="1" t="s">
         <v>8</v>
@@ -26358,7 +26352,7 @@
         <v>38</v>
       </c>
       <c r="AB202" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC202" s="1" t="s">
         <v>12</v>
@@ -26402,13 +26396,13 @@
         <v>11</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D203" s="1">
         <v>200407631</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>54</v>
@@ -26465,7 +26459,7 @@
         <v>5</v>
       </c>
       <c r="X203" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="Y203" s="1" t="s">
         <v>8</v>
@@ -26521,13 +26515,13 @@
         <v>12</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D204" s="1">
         <v>200409262</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>21</v>
@@ -26584,7 +26578,7 @@
         <v>5</v>
       </c>
       <c r="X204" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="Y204" s="1" t="s">
         <v>8</v>
@@ -26640,13 +26634,13 @@
         <v>10</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D205" s="1">
         <v>200411550</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>33</v>
@@ -26703,10 +26697,10 @@
         <v>5</v>
       </c>
       <c r="X205" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="Y205" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z205" s="1" t="s">
         <v>26</v>
@@ -26759,13 +26753,13 @@
         <v>12</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D206" s="1">
         <v>200407234</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>54</v>
@@ -26777,7 +26771,7 @@
         <v>48</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>35</v>
@@ -26822,7 +26816,7 @@
         <v>4</v>
       </c>
       <c r="X206" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="Y206" s="1" t="s">
         <v>8</v>
@@ -26834,7 +26828,7 @@
         <v>38</v>
       </c>
       <c r="AB206" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC206" s="1" t="s">
         <v>12</v>
@@ -26878,13 +26872,13 @@
         <v>11</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D207" s="1">
         <v>200394972</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>21</v>
@@ -26941,7 +26935,7 @@
         <v>5</v>
       </c>
       <c r="X207" s="1" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="Y207" s="1" t="s">
         <v>8</v>
@@ -26997,13 +26991,13 @@
         <v>13</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D208" s="1">
         <v>200416174</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>21</v>
@@ -27060,7 +27054,7 @@
         <v>5</v>
       </c>
       <c r="X208" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="Y208" s="1" t="s">
         <v>8</v>
@@ -27122,7 +27116,7 @@
         <v>200394903</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>21</v>
@@ -27179,7 +27173,7 @@
         <v>5</v>
       </c>
       <c r="X209" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="Y209" s="1" t="s">
         <v>8</v>
@@ -27235,13 +27229,13 @@
         <v>12</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D210" s="1">
         <v>200397663</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>21</v>
@@ -27298,7 +27292,7 @@
         <v>5</v>
       </c>
       <c r="X210" s="1" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="Y210" s="1" t="s">
         <v>8</v>
@@ -27310,7 +27304,7 @@
         <v>38</v>
       </c>
       <c r="AB210" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC210" s="1" t="s">
         <v>12</v>
@@ -27354,13 +27348,13 @@
         <v>10</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D211" s="1">
         <v>200412119</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>21</v>
@@ -27417,7 +27411,7 @@
         <v>5</v>
       </c>
       <c r="X211" s="1" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="Y211" s="1" t="s">
         <v>8</v>
@@ -27479,7 +27473,7 @@
         <v>200399223</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>21</v>
@@ -27592,13 +27586,13 @@
         <v>11</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D213" s="1">
         <v>200432311</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>21</v>
@@ -27655,7 +27649,7 @@
         <v>5</v>
       </c>
       <c r="X213" s="1" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="Y213" s="1" t="s">
         <v>8</v>
@@ -27711,13 +27705,13 @@
         <v>11</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="D214" s="1">
         <v>200412368</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>21</v>
@@ -27774,7 +27768,7 @@
         <v>4</v>
       </c>
       <c r="X214" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="Y214" s="1" t="s">
         <v>8</v>
@@ -27830,13 +27824,13 @@
         <v>15</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="D215" s="1">
         <v>200401081</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>21</v>
@@ -27893,7 +27887,7 @@
         <v>5</v>
       </c>
       <c r="X215" s="1" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="Y215" s="1" t="s">
         <v>8</v>
@@ -27949,13 +27943,13 @@
         <v>10</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D216" s="1">
         <v>200400357</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>21</v>
@@ -28012,7 +28006,7 @@
         <v>5</v>
       </c>
       <c r="X216" s="1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="Y216" s="1" t="s">
         <v>134</v>
@@ -28068,13 +28062,13 @@
         <v>10</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="D217" s="1">
         <v>200428152</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>21</v>
@@ -28131,7 +28125,7 @@
         <v>5</v>
       </c>
       <c r="X217" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="Y217" s="1" t="s">
         <v>8</v>
@@ -28170,7 +28164,7 @@
         <v>0</v>
       </c>
       <c r="AK217" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL217" s="1" t="s">
         <v>18</v>
@@ -28187,13 +28181,13 @@
         <v>11</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D218" s="1">
         <v>200416271</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>80</v>
@@ -28250,7 +28244,7 @@
         <v>5</v>
       </c>
       <c r="X218" s="1" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="Y218" s="1" t="s">
         <v>8</v>
@@ -28306,13 +28300,13 @@
         <v>12</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D219" s="1">
         <v>200404629</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>21</v>
@@ -28369,7 +28363,7 @@
         <v>5</v>
       </c>
       <c r="X219" s="1" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="Y219" s="1" t="s">
         <v>8</v>
@@ -28425,13 +28419,13 @@
         <v>12</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D220" s="1">
         <v>200404663</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>21</v>
@@ -28488,7 +28482,7 @@
         <v>5</v>
       </c>
       <c r="X220" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="Y220" s="1" t="s">
         <v>8</v>
@@ -28544,13 +28538,13 @@
         <v>13</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D221" s="1">
         <v>200400822</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>33</v>
@@ -28607,7 +28601,7 @@
         <v>5</v>
       </c>
       <c r="X221" s="1" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="Y221" s="1" t="s">
         <v>8</v>
@@ -28663,13 +28657,13 @@
         <v>12</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D222" s="1">
         <v>200430818</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>89</v>
@@ -28726,7 +28720,7 @@
         <v>5</v>
       </c>
       <c r="X222" s="1" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="Y222" s="1" t="s">
         <v>8</v>
@@ -28782,13 +28776,13 @@
         <v>11</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D223" s="1">
         <v>200415352</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>89</v>
@@ -28845,7 +28839,7 @@
         <v>5</v>
       </c>
       <c r="X223" s="1" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="Y223" s="1" t="s">
         <v>8</v>
@@ -28901,13 +28895,13 @@
         <v>10</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D224" s="1">
         <v>200406846</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>21</v>
@@ -28964,10 +28958,10 @@
         <v>5</v>
       </c>
       <c r="X224" s="1" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="Y224" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z224" s="1" t="s">
         <v>9</v>
@@ -29003,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="AK224" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL224" s="1" t="s">
         <v>18</v>
@@ -29020,13 +29014,13 @@
         <v>12</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D225" s="1">
         <v>200411283</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>3</v>
@@ -29083,7 +29077,7 @@
         <v>5</v>
       </c>
       <c r="X225" s="1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="Y225" s="1" t="s">
         <v>8</v>
@@ -29122,7 +29116,7 @@
         <v>0</v>
       </c>
       <c r="AK225" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AL225" s="1" t="s">
         <v>18</v>
@@ -29139,13 +29133,13 @@
         <v>10</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D226" s="1">
         <v>200398873</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>21</v>
@@ -29202,7 +29196,7 @@
         <v>5</v>
       </c>
       <c r="X226" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="Y226" s="1" t="s">
         <v>8</v>
@@ -29241,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="AK226" s="1" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="AL226" s="1" t="s">
         <v>18</v>
@@ -29258,13 +29252,13 @@
         <v>11</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D227" s="1">
         <v>200415019</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>21</v>
@@ -29321,7 +29315,7 @@
         <v>5</v>
       </c>
       <c r="X227" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="Y227" s="1" t="s">
         <v>8</v>
@@ -29360,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="AK227" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL227" s="1" t="s">
         <v>18</v>
@@ -29377,13 +29371,13 @@
         <v>12</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D228" s="1">
         <v>200392271</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>21</v>
@@ -29440,7 +29434,7 @@
         <v>5</v>
       </c>
       <c r="X228" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="Y228" s="1" t="s">
         <v>8</v>
@@ -29496,13 +29490,13 @@
         <v>12</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D229" s="1">
         <v>200432192</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>21</v>
@@ -29559,7 +29553,7 @@
         <v>5</v>
       </c>
       <c r="X229" s="1" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="Y229" s="1" t="s">
         <v>8</v>
@@ -29615,13 +29609,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D230" s="1">
         <v>200402662</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>3</v>
@@ -29678,7 +29672,7 @@
         <v>4</v>
       </c>
       <c r="X230" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="Y230" s="1" t="s">
         <v>8</v>
@@ -29740,7 +29734,7 @@
         <v>200409023</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>21</v>
@@ -29797,7 +29791,7 @@
         <v>5</v>
       </c>
       <c r="X231" s="1" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="Y231" s="1" t="s">
         <v>8</v>
@@ -29853,13 +29847,13 @@
         <v>10</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D232" s="1">
         <v>200399935</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>33</v>
@@ -29916,7 +29910,7 @@
         <v>5</v>
       </c>
       <c r="X232" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="Y232" s="1" t="s">
         <v>8</v>
@@ -29955,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="AK232" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="AL232" s="1" t="s">
         <v>18</v>
@@ -29972,13 +29966,13 @@
         <v>13</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D233" s="1">
         <v>200406169</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>21</v>
@@ -30035,7 +30029,7 @@
         <v>4</v>
       </c>
       <c r="X233" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="Y233" s="1" t="s">
         <v>8</v>
@@ -30091,13 +30085,13 @@
         <v>12</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D234" s="1">
         <v>200408699</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>54</v>
@@ -30154,7 +30148,7 @@
         <v>5</v>
       </c>
       <c r="X234" s="1" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="Y234" s="1" t="s">
         <v>8</v>
@@ -30210,13 +30204,13 @@
         <v>10</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D235" s="1">
         <v>200402051</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>54</v>
@@ -30273,7 +30267,7 @@
         <v>4</v>
       </c>
       <c r="X235" s="1" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="Y235" s="1" t="s">
         <v>8</v>
@@ -30329,13 +30323,13 @@
         <v>10</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="D236" s="1">
         <v>200396956</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>21</v>
@@ -30392,7 +30386,7 @@
         <v>5</v>
       </c>
       <c r="X236" s="1" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="Y236" s="1" t="s">
         <v>8</v>
@@ -30448,13 +30442,13 @@
         <v>11</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D237" s="1">
         <v>200430605</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>89</v>
@@ -30511,7 +30505,7 @@
         <v>5</v>
       </c>
       <c r="X237" s="1" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="Y237" s="1" t="s">
         <v>8</v>
@@ -30567,13 +30561,13 @@
         <v>13</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D238" s="1">
         <v>200411777</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>60</v>
@@ -30630,7 +30624,7 @@
         <v>5</v>
       </c>
       <c r="X238" s="1" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="Y238" s="1" t="s">
         <v>8</v>
@@ -30692,7 +30686,7 @@
         <v>200415599</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>21</v>
@@ -30749,10 +30743,10 @@
         <v>5</v>
       </c>
       <c r="X239" s="1" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="Y239" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Z239" s="1" t="s">
         <v>67</v>
@@ -30805,13 +30799,13 @@
         <v>11</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D240" s="1">
         <v>200412527</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>80</v>
@@ -30868,7 +30862,7 @@
         <v>5</v>
       </c>
       <c r="X240" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="Y240" s="1" t="s">
         <v>8</v>
@@ -30924,13 +30918,13 @@
         <v>13</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="D241" s="1">
         <v>200409815</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>21</v>
@@ -30987,7 +30981,7 @@
         <v>5</v>
       </c>
       <c r="X241" s="1" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="Y241" s="1" t="s">
         <v>37</v>
@@ -31043,13 +31037,13 @@
         <v>11</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="D242" s="1">
         <v>200394288</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>21</v>
@@ -31106,7 +31100,7 @@
         <v>5</v>
       </c>
       <c r="X242" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="Y242" s="1" t="s">
         <v>8</v>
@@ -31162,13 +31156,13 @@
         <v>11</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D243" s="1">
         <v>200411673</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>21</v>
@@ -31225,7 +31219,7 @@
         <v>5</v>
       </c>
       <c r="X243" s="1" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="Y243" s="1" t="s">
         <v>8</v>
@@ -31264,7 +31258,7 @@
         <v>0</v>
       </c>
       <c r="AK243" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL243" s="1" t="s">
         <v>18</v>
@@ -31287,7 +31281,7 @@
         <v>200406241</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>136</v>
@@ -31344,7 +31338,7 @@
         <v>5</v>
       </c>
       <c r="X244" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="Y244" s="1" t="s">
         <v>8</v>
@@ -31400,13 +31394,13 @@
         <v>15</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D245" s="1">
         <v>200390540</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>21</v>
@@ -31463,7 +31457,7 @@
         <v>4</v>
       </c>
       <c r="X245" s="1" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="Y245" s="1" t="s">
         <v>8</v>
@@ -31519,13 +31513,13 @@
         <v>9</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="D246" s="1">
         <v>200401422</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>21</v>
@@ -31582,7 +31576,7 @@
         <v>5</v>
       </c>
       <c r="X246" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="Y246" s="1" t="s">
         <v>134</v>
@@ -31638,13 +31632,13 @@
         <v>12</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D247" s="1">
         <v>200401078</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>60</v>
@@ -31701,7 +31695,7 @@
         <v>5</v>
       </c>
       <c r="X247" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="Y247" s="1" t="s">
         <v>8</v>
@@ -31757,13 +31751,13 @@
         <v>13</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D248" s="1">
         <v>200401198</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>89</v>
@@ -31775,7 +31769,7 @@
         <v>34</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>35</v>
@@ -31820,7 +31814,7 @@
         <v>5</v>
       </c>
       <c r="X248" s="1" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="Y248" s="1" t="s">
         <v>8</v>
@@ -31876,13 +31870,13 @@
         <v>12</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D249" s="1">
         <v>200394956</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>21</v>
@@ -31939,7 +31933,7 @@
         <v>5</v>
       </c>
       <c r="X249" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="Y249" s="1" t="s">
         <v>8</v>
@@ -31995,13 +31989,13 @@
         <v>13</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D250" s="1">
         <v>200430376</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>54</v>
@@ -32058,7 +32052,7 @@
         <v>5</v>
       </c>
       <c r="X250" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="Y250" s="1" t="s">
         <v>8</v>
@@ -32114,13 +32108,13 @@
         <v>10</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="D251" s="1">
         <v>200390684</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>21</v>
@@ -32177,7 +32171,7 @@
         <v>5</v>
       </c>
       <c r="X251" s="1" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="Y251" s="1" t="s">
         <v>8</v>
@@ -32189,7 +32183,7 @@
         <v>38</v>
       </c>
       <c r="AB251" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC251" s="1" t="s">
         <v>12</v>
@@ -32233,13 +32227,13 @@
         <v>11</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D252" s="1">
         <v>200413982</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>89</v>
@@ -32296,7 +32290,7 @@
         <v>5</v>
       </c>
       <c r="X252" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="Y252" s="1" t="s">
         <v>8</v>
@@ -32352,13 +32346,13 @@
         <v>11</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D253" s="1">
         <v>200403178</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>3</v>
@@ -32415,7 +32409,7 @@
         <v>5</v>
       </c>
       <c r="X253" s="1" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="Y253" s="1" t="s">
         <v>8</v>
@@ -32471,13 +32465,13 @@
         <v>10</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D254" s="1">
         <v>200401870</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>21</v>
@@ -32534,7 +32528,7 @@
         <v>5</v>
       </c>
       <c r="X254" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="Y254" s="1" t="s">
         <v>134</v>
@@ -32590,13 +32584,13 @@
         <v>11</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D255" s="1">
         <v>200405757</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>54</v>
@@ -32653,7 +32647,7 @@
         <v>5</v>
       </c>
       <c r="X255" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="Y255" s="1" t="s">
         <v>8</v>
@@ -32709,13 +32703,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D256" s="1">
         <v>200409727</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>54</v>
@@ -32772,7 +32766,7 @@
         <v>5</v>
       </c>
       <c r="X256" s="1" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="Y256" s="1" t="s">
         <v>8</v>
@@ -32784,7 +32778,7 @@
         <v>10</v>
       </c>
       <c r="AB256" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC256" s="1" t="s">
         <v>12</v>
@@ -32811,7 +32805,7 @@
         <v>1</v>
       </c>
       <c r="AK256" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL256" s="1" t="s">
         <v>18</v>
@@ -32828,13 +32822,13 @@
         <v>13</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D257" s="1">
         <v>200400248</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>21</v>
@@ -32891,7 +32885,7 @@
         <v>5</v>
       </c>
       <c r="X257" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="Y257" s="1" t="s">
         <v>8</v>
@@ -32947,13 +32941,13 @@
         <v>14</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D258" s="1">
         <v>200427644</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>21</v>
@@ -33010,7 +33004,7 @@
         <v>4</v>
       </c>
       <c r="X258" s="1" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="Y258" s="1" t="s">
         <v>8</v>
@@ -33066,13 +33060,13 @@
         <v>11</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D259" s="1">
         <v>200401800</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>136</v>
@@ -33129,7 +33123,7 @@
         <v>5</v>
       </c>
       <c r="X259" s="1" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="Y259" s="1" t="s">
         <v>8</v>
@@ -33185,13 +33179,13 @@
         <v>13</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="D260" s="1">
         <v>200409656</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>54</v>
@@ -33203,7 +33197,7 @@
         <v>22</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>63</v>
@@ -33248,7 +33242,7 @@
         <v>5</v>
       </c>
       <c r="X260" s="1" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="Y260" s="1" t="s">
         <v>8</v>
@@ -33304,13 +33298,13 @@
         <v>7</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="D261" s="1">
         <v>200402237</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>54</v>
@@ -33367,7 +33361,7 @@
         <v>4</v>
       </c>
       <c r="X261" s="1" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="Y261" s="1" t="s">
         <v>8</v>
@@ -33423,13 +33417,13 @@
         <v>9</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="D262" s="1">
         <v>200408039</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>21</v>
@@ -33486,7 +33480,7 @@
         <v>4</v>
       </c>
       <c r="X262" s="1" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="Y262" s="1" t="s">
         <v>8</v>
@@ -33498,7 +33492,7 @@
         <v>38</v>
       </c>
       <c r="AB262" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AC262" s="1" t="s">
         <v>12</v>
@@ -33542,13 +33536,13 @@
         <v>9</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="D263" s="1">
         <v>200409689</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>21</v>
@@ -33605,7 +33599,7 @@
         <v>5</v>
       </c>
       <c r="X263" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="Y263" s="1" t="s">
         <v>8</v>
@@ -33617,7 +33611,7 @@
         <v>38</v>
       </c>
       <c r="AB263" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AC263" s="1" t="s">
         <v>12</v>
@@ -33661,13 +33655,13 @@
         <v>12</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="D264" s="1">
         <v>200429458</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>89</v>
@@ -33724,7 +33718,7 @@
         <v>4</v>
       </c>
       <c r="X264" s="1" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="Y264" s="1" t="s">
         <v>8</v>
@@ -33780,13 +33774,13 @@
         <v>12</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="D265" s="1">
         <v>200415189</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>33</v>
@@ -33798,7 +33792,7 @@
         <v>22</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>49</v>
@@ -33843,7 +33837,7 @@
         <v>5</v>
       </c>
       <c r="X265" s="1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="Y265" s="1" t="s">
         <v>134</v>
@@ -33899,13 +33893,13 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="D266" s="1">
         <v>200431290</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>89</v>
@@ -33962,7 +33956,7 @@
         <v>5</v>
       </c>
       <c r="X266" s="1" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="Y266" s="1" t="s">
         <v>8</v>
